--- a/Known Issues Ex3- 209228600_.xlsx
+++ b/Known Issues Ex3- 209228600_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stav\Projects\Advanced-topics-in-programming\final-project\Robot-Cleaner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895065C5-B5D6-4C40-A6AA-2C69D8B43F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F43644F-8F5E-47B0-A599-33789B920027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Known Issues Ex3- 209228600_.xlsx
+++ b/Known Issues Ex3- 209228600_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stav\Projects\Advanced-topics-in-programming\final-project\Robot-Cleaner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F43644F-8F5E-47B0-A599-33789B920027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A441B565-4D33-4C5B-9422-F265EADE6A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Please make sure to set the proper IDs into the filename!</t>
   </si>
@@ -80,12 +80,6 @@
     <t>Program misbehave</t>
   </si>
   <si>
-    <t>Snakes cannot pass screen borders on the right X edge</t>
-  </si>
-  <si>
-    <t>Go with snake to the right end - it doesn’t move to the left side of screen</t>
-  </si>
-  <si>
     <t>Lack of knowledge</t>
   </si>
   <si>
@@ -95,25 +89,7 @@
     <t>Missing a required Class</t>
   </si>
   <si>
-    <t>Missing GameManager class</t>
-  </si>
-  <si>
     <t>Not relevant</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>Need to add the class and move code from main to this class. When we realized that this class is needed we didn’t have enough time to add it.</t>
-  </si>
-  <si>
-    <t>Having a redundant Class</t>
-  </si>
-  <si>
-    <t>class Point and class Location should be one</t>
-  </si>
-  <si>
-    <t>Each one of the team members created his own Point / Location class and we hadn’t got enough time to unite them.</t>
   </si>
   <si>
     <t>Types</t>
@@ -185,32 +161,50 @@
     <t>Algorithms might be slow</t>
   </si>
   <si>
-    <t>Didn't implement a smart algorithm for charging, such that stays at docking in an efficent way to maximize cleaining an dminimize steps. Instad the robot staying in docking until it fully charged (If needed- if max battery will benefit the robot- else finish)</t>
-  </si>
-  <si>
     <t>Sometimes</t>
   </si>
   <si>
     <t>House that the dirt in not rewuire staying in docking until fully charged.</t>
   </si>
   <si>
-    <t>I created a smart algorithm but did not have enogh time to check it on all inputs. If you are intresting I added it to a folder named KnownIsuues. [Explain: calculateChargingTime is being called when robot is in docking, it explore in a BFS way the tiles, while randoming
+    <t xml:space="preserve">In Algorithm A: In worst case the in getStepFromMapping (houseMappingGraph.cpp) there can be at most 3 runs of BFS (that might not occure in next steps because they build a path for next steps). </t>
+  </si>
+  <si>
+    <t>Tried to fix that but it caused the program to crash...C11B7:J9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coding convention for file names </t>
+  </si>
+  <si>
+    <t>names of cpp and h file is not unit (some with upper cases and some with _)</t>
+  </si>
+  <si>
+    <t>I did not know if Im allowed to change the names of the files you gave to us in the skeleton, so I kept mine as it is (my files have the same naming conventions).</t>
+  </si>
+  <si>
+    <t>Didn't implement a smart algorithm for charging, such that stays at docking in an efficent way to maximize cleaining and minimize steps. Instad the robot staying in docking until it fully charged (If needed- if max battery will benefit the robot- else finish). the robot IS finish if there is no point in charging (not enogh max steps for charge and get to nearest rewuired tile...)</t>
+  </si>
+  <si>
+    <t>I created a smart algorithm with "smart charging" but did not have enogh time to check it on all inputs. If you are intresting I added it to a folder named KnownIsuues. [Explain: calculateChargingTime is being called when robot is in docking, it explore in a BFS way the tiles, while randoming
 dirt for unkown tiles. it saves the path, steps to charge of the path that gives us the maximum dirt,
 all of this under the limitation of maxSteps and maxBatterySteps.
 in getStepFromMapping, if onDeterminedWayFromCharging is true, we keep charging as the amount of steps for charging that was determined on calculateChargingTime and when finishing, making the path that also was determined there. 
-other seggestions based on this implementation is change the amount of dirt of the unkwon tiles (maybe to 0 or 1...)]</t>
+other seggestions based on this implementation is change the amount of dirt of the unkwon tiles (maybe to 0 or 1...). TO SUM UP: this algorithm searches using BFS method after the path with maximum dirt that id we will go on it we will have enogh steps in battery and max steps]</t>
   </si>
   <si>
-    <t xml:space="preserve">In Algorithm A: In worst case the in getStepFromMapping (houseMappingGraph.cpp) there can be at most 3 runs of BFS (that might not occure in next steps because they build a path for next steps). </t>
+    <t xml:space="preserve">Tiles with dirt and unkwon dirt in equal distance from current location. Robot dont have enogh steps to clean closest tile with dirt- will need to calculate distance between docking station and tile with unkwon dirt to check if this option is possibole with current steps. </t>
   </si>
   <si>
-    <t xml:space="preserve">tiles with dirt and unkwon dirt in equal distance from current location, don’t have enogh steps for the tile with the dirt, will need to calculate distance between docking station and tile with unkwon tile to check if this option is possibole with current steps. </t>
+    <t>I didn’t want to change the code 1 day before submission, so prefered keep it this way. Also, my algorithm not calculating BFS In every step, there are iteration where the step is getting in O(1) time, so it offsetting.</t>
   </si>
   <si>
-    <t xml:space="preserve">I didn’t want to change the code 1 day before submission, so prefered keep it this way. </t>
+    <t>long functions</t>
   </si>
   <si>
-    <t>Tried to fix that but it caused the program to crash...C11B7:J9</t>
+    <t>In Task.cpp, the function Task::run is pretty long because of the body of jthread</t>
+  </si>
+  <si>
+    <t>Did not had the time to put jthread body in different function (it is possibole and better..)</t>
   </si>
 </sst>
 </file>
@@ -528,17 +522,21 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="F6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.453125" customWidth="1"/>
     <col min="2" max="2" width="5.26953125" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" customWidth="1"/>
     <col min="5" max="5" width="37.1796875" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" customWidth="1"/>
-    <col min="10" max="10" width="35.26953125" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" customWidth="1"/>
+    <col min="8" max="8" width="22.36328125" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" customWidth="1"/>
+    <col min="10" max="10" width="45.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -684,25 +682,25 @@
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -730,25 +728,25 @@
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -773,28 +771,26 @@
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -819,28 +815,26 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -849,45 +843,18 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="71" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -895,15 +862,6 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -28699,34 +28657,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28734,7 +28692,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28744,55 +28702,55 @@
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -28811,9 +28769,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28828,7 +28786,7 @@
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -28847,9 +28805,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28859,12 +28817,12 @@
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -28883,9 +28841,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28895,7 +28853,7 @@
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
